--- a/biology/Biologie cellulaire et moléculaire/CD2/CD2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CD2/CD2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CD2 (Cluster de différenciation 2) est une molécule d'adhésion cellulaire (CAM, cell adhesion molecule) exprimée à la surface des lymphocytes T et des cellules NK (natural killer). D'autres appellations furent précédemment utilisées pour CD2: antigène CD2, T11/Leu-5, LFA-2, LFA-3 receptor, erythrocyte receptor et Rosette receptor[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD2 (Cluster de différenciation 2) est une molécule d'adhésion cellulaire (CAM, cell adhesion molecule) exprimée à la surface des lymphocytes T et des cellules NK (natural killer). D'autres appellations furent précédemment utilisées pour CD2: antigène CD2, T11/Leu-5, LFA-2, LFA-3 receptor, erythrocyte receptor et Rosette receptor.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Structure et classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CD2 est une protéine composée de 351 acides aminés[6] dont le poids moléculaire est d'environ 50 kDa. Chez l'homme, son gène est situé sur le chromosome 1 humain, au locus 1p13[7].
-CD2 est membre de la superfamille des immunoglobulines. Cette classification est due aux caractéristiques structurales de cette protéine. CD2 possède deux domaines de type immunoglobuline dans sa partie extracellulaire[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD2 est une protéine composée de 351 acides aminés dont le poids moléculaire est d'environ 50 kDa. Chez l'homme, son gène est situé sur le chromosome 1 humain, au locus 1p13.
+CD2 est membre de la superfamille des immunoglobulines. Cette classification est due aux caractéristiques structurales de cette protéine. CD2 possède deux domaines de type immunoglobuline dans sa partie extracellulaire.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">CD2 interagit avec des molécules d'adhésion exprimées à la surface d'autres cellules, telles que LFA-3/CD58 (lymphocyte function-associated antigen-3) chez l'homme ou CD48 chez les rongeurs.  
 En plus de ses fonctions d'adhésion, CD2 agit comme une molécule co-stimulatrice pour les cellules T et NK. 
